--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['MEC-3A-M. S. R. AR Cond.', 'MEC-3A-M. S. R. AR Cond.', 'MEC-3A-M. S. R. AR Cond.', 'MEC-3A-M. S. R. AR Cond.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>[-, -, 'MEC-3A-M.S.R. ar Cond.', -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>[-, -, 'MEC-3A-M.S.R. ar Cond.', -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>[-, -, 'MEC-3A-M.S.R. ar Cond.', -]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">

--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-M.S.R. ar Cond.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-M.S.R. ar Cond.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-M.S.R. ar Cond.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">

--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['MEC-3A-M.S.R. ar Cond.', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Tiago Freitas.xlsx
+++ b/data/teacher/Tiago Freitas.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-M.S.R. ar Cond.', -, -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-M.S.R. ar Cond.']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
